--- a/data/KCC new and old gps.xlsx
+++ b/data/KCC new and old gps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anu365-my.sharepoint.com/personal/u4593341_anu_edu_au/Documents/teaching and students/Env Field School/2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/ENVS2018-environmental-science-field-school/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{F557ED09-CAC7-48AC-A50F-8CE6065B661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{703E72DC-3D5F-4930-B247-556EE5A92436}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{F557ED09-CAC7-48AC-A50F-8CE6065B661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E68E62A7-87F9-44E4-8177-7CAB58D66169}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F77204CE-FB49-43A8-B637-571C3DF9627D}"/>
+    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{F77204CE-FB49-43A8-B637-571C3DF9627D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,84 +66,12 @@
     <t>ele</t>
   </si>
   <si>
-    <t>Kioloa C1</t>
-  </si>
-  <si>
-    <t>Kioloa C2</t>
-  </si>
-  <si>
-    <t>Kioloa C3</t>
-  </si>
-  <si>
-    <t>Kioloa C4</t>
-  </si>
-  <si>
-    <t>Kioloa C5</t>
-  </si>
-  <si>
-    <t>Kioloa OG1</t>
-  </si>
-  <si>
-    <t>Kioloa OG10</t>
-  </si>
-  <si>
     <t>Top of hill, go through gate and around to right</t>
   </si>
   <si>
-    <t>Kioloa OG5</t>
-  </si>
-  <si>
     <t>Across from dam</t>
   </si>
   <si>
-    <t>Kioloa OG7</t>
-  </si>
-  <si>
-    <t>Kioloa OG9</t>
-  </si>
-  <si>
-    <t>Kioloa P1</t>
-  </si>
-  <si>
-    <t>Kioloa P10</t>
-  </si>
-  <si>
-    <t>Kioloa P2</t>
-  </si>
-  <si>
-    <t>Kioloa P3</t>
-  </si>
-  <si>
-    <t>Kioloa RF1</t>
-  </si>
-  <si>
-    <t>Kioloa RF2</t>
-  </si>
-  <si>
-    <t>Kioloa RF3</t>
-  </si>
-  <si>
-    <t>Kioloa RF4</t>
-  </si>
-  <si>
-    <t>Kioloa RG1</t>
-  </si>
-  <si>
-    <t>Kioloa RG10</t>
-  </si>
-  <si>
-    <t>Kioloa RG2</t>
-  </si>
-  <si>
-    <t>Kioloa RG3</t>
-  </si>
-  <si>
-    <t>Kioloa RG4</t>
-  </si>
-  <si>
-    <t>Kioloa RG8</t>
-  </si>
-  <si>
     <t>new name</t>
   </si>
   <si>
@@ -213,9 +141,6 @@
     <t>near road</t>
   </si>
   <si>
-    <t>old name</t>
-  </si>
-  <si>
     <t>photopoint direction</t>
   </si>
   <si>
@@ -253,6 +178,81 @@
   </si>
   <si>
     <t>couldn’t find original lots fallen trees, put new tag on a tree</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>RG2</t>
+  </si>
+  <si>
+    <t>OG1</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>RG1</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>RG4</t>
+  </si>
+  <si>
+    <t>RG8</t>
+  </si>
+  <si>
+    <t>RF4</t>
+  </si>
+  <si>
+    <t>RG3</t>
+  </si>
+  <si>
+    <t>RF3</t>
+  </si>
+  <si>
+    <t>RG10</t>
+  </si>
+  <si>
+    <t>RF2</t>
+  </si>
+  <si>
+    <t>RF1</t>
+  </si>
+  <si>
+    <t>OG5</t>
+  </si>
+  <si>
+    <t>OG7</t>
+  </si>
+  <si>
+    <t>OG9</t>
+  </si>
+  <si>
+    <t>OG10</t>
   </si>
 </sst>
 </file>
@@ -294,9 +294,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -355,7 +354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -461,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -603,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -613,30 +612,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C80D92-EB12-4566-9690-AEA35A6FFD2C}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="114.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="114.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -651,15 +650,15 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -677,12 +676,12 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -700,12 +699,12 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -726,12 +725,12 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -752,15 +751,15 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -781,12 +780,12 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -807,481 +806,481 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>275</v>
+      </c>
+      <c r="D8">
+        <v>150.38286600000001</v>
+      </c>
+      <c r="E8">
+        <v>-35.539717000000003</v>
+      </c>
+      <c r="F8">
+        <v>6.1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>315</v>
+      </c>
+      <c r="D9">
+        <v>150.38068000000001</v>
+      </c>
+      <c r="E9">
+        <v>-35.540761000000003</v>
+      </c>
+      <c r="F9">
+        <v>10.1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>180</v>
+      </c>
+      <c r="D10">
+        <v>150.37858199999999</v>
+      </c>
+      <c r="E10">
+        <v>-35.542655000000003</v>
+      </c>
+      <c r="F10">
+        <v>8.9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+      <c r="D11">
+        <v>150.37775500000001</v>
+      </c>
+      <c r="E11">
+        <v>-35.541618</v>
+      </c>
+      <c r="F11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>315</v>
+      </c>
+      <c r="D12">
+        <v>150.37556900000001</v>
+      </c>
+      <c r="E12">
+        <v>-35.539107000000001</v>
+      </c>
+      <c r="F12">
+        <v>23.7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>280</v>
+      </c>
+      <c r="D13">
+        <v>150.37271699999999</v>
+      </c>
+      <c r="E13">
+        <v>-35.544784999999997</v>
+      </c>
+      <c r="F13">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>135</v>
+      </c>
+      <c r="D14">
+        <v>150.37264400000001</v>
+      </c>
+      <c r="E14">
+        <v>-35.547741000000002</v>
+      </c>
+      <c r="F14">
+        <v>10.6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>290</v>
+      </c>
+      <c r="D15">
+        <v>150.37028100000001</v>
+      </c>
+      <c r="E15">
+        <v>-35.545724</v>
+      </c>
+      <c r="F15">
+        <v>28.1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>150.369461</v>
+      </c>
+      <c r="E16">
+        <v>-35.544649960000001</v>
+      </c>
+      <c r="F16">
+        <v>18.11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>220</v>
+      </c>
+      <c r="D17">
+        <v>150.36940999999999</v>
+      </c>
+      <c r="E17">
+        <v>-35.543441000000001</v>
+      </c>
+      <c r="F17">
+        <v>68.5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>140</v>
+      </c>
+      <c r="D18">
+        <v>150.36701400000001</v>
+      </c>
+      <c r="E18">
+        <v>-35.543947000000003</v>
+      </c>
+      <c r="F18">
+        <v>23.25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>275</v>
-      </c>
-      <c r="D8" s="1">
-        <v>150.38286600000001</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-35.539717000000003</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+      <c r="D19">
+        <v>150.36614499999999</v>
+      </c>
+      <c r="E19">
+        <v>-35.545318000000002</v>
+      </c>
+      <c r="F19">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>150.36529200000001</v>
+      </c>
+      <c r="E20">
+        <v>-35.543553019999997</v>
+      </c>
+      <c r="F20">
+        <v>28.57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>180</v>
+      </c>
+      <c r="D21">
+        <v>150.36496099999999</v>
+      </c>
+      <c r="E21">
+        <v>-35.54433899</v>
+      </c>
+      <c r="F21">
+        <v>24.28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>130</v>
+      </c>
+      <c r="D22">
+        <v>150.36405300000001</v>
+      </c>
+      <c r="E22">
+        <v>-35.544156999999998</v>
+      </c>
+      <c r="F22">
+        <v>44.3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>315</v>
-      </c>
-      <c r="D9" s="1">
-        <v>150.38068000000001</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-35.540761000000003</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>180</v>
-      </c>
-      <c r="D10" s="1">
-        <v>150.37858199999999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-35.542655000000003</v>
-      </c>
-      <c r="F10" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="C23">
+        <v>75</v>
+      </c>
+      <c r="D23">
+        <v>150.36130499999999</v>
+      </c>
+      <c r="E23">
+        <v>-35.544358000000003</v>
+      </c>
+      <c r="F23">
+        <v>64.5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>180</v>
-      </c>
-      <c r="D11" s="1">
-        <v>150.37775500000001</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-35.541618</v>
-      </c>
-      <c r="F11" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>315</v>
-      </c>
-      <c r="D12" s="1">
-        <v>150.37556900000001</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-35.539107000000001</v>
-      </c>
-      <c r="F12" s="1">
-        <v>23.7</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>280</v>
-      </c>
-      <c r="D13" s="1">
-        <v>150.37271699999999</v>
-      </c>
-      <c r="E13" s="1">
-        <v>-35.544784999999997</v>
-      </c>
-      <c r="F13" s="1">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>135</v>
-      </c>
-      <c r="D14" s="1">
-        <v>150.37264400000001</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-35.547741000000002</v>
-      </c>
-      <c r="F14" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>290</v>
-      </c>
-      <c r="D15" s="1">
-        <v>150.37028100000001</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-35.545724</v>
-      </c>
-      <c r="F15" s="1">
-        <v>28.1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1">
-        <v>150.369461</v>
-      </c>
-      <c r="E16" s="1">
-        <v>-35.544649960000001</v>
-      </c>
-      <c r="F16" s="1">
-        <v>18.11</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C24">
+        <v>340</v>
+      </c>
+      <c r="D24">
+        <v>150.35822300000001</v>
+      </c>
+      <c r="E24">
+        <v>-35.544803999999999</v>
+      </c>
+      <c r="F24">
+        <v>100.1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>220</v>
-      </c>
-      <c r="D17" s="1">
-        <v>150.36940999999999</v>
-      </c>
-      <c r="E17" s="1">
-        <v>-35.543441000000001</v>
-      </c>
-      <c r="F17" s="1">
-        <v>68.5</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
-        <v>140</v>
-      </c>
-      <c r="D18" s="1">
-        <v>150.36701400000001</v>
-      </c>
-      <c r="E18" s="1">
-        <v>-35.543947000000003</v>
-      </c>
-      <c r="F18" s="1">
-        <v>23.25</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>200</v>
-      </c>
-      <c r="D19" s="1">
-        <v>150.36614499999999</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-35.545318000000002</v>
-      </c>
-      <c r="F19" s="1">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
-        <v>60</v>
-      </c>
-      <c r="D20" s="1">
-        <v>150.36529200000001</v>
-      </c>
-      <c r="E20" s="1">
-        <v>-35.543553019999997</v>
-      </c>
-      <c r="F20" s="1">
-        <v>28.57</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>180</v>
-      </c>
-      <c r="D21" s="1">
-        <v>150.36496099999999</v>
-      </c>
-      <c r="E21" s="1">
-        <v>-35.54433899</v>
-      </c>
-      <c r="F21" s="1">
-        <v>24.28</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1">
-        <v>130</v>
-      </c>
-      <c r="D22" s="1">
-        <v>150.36405300000001</v>
-      </c>
-      <c r="E22" s="1">
-        <v>-35.544156999999998</v>
-      </c>
-      <c r="F22" s="1">
-        <v>44.3</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>75</v>
-      </c>
-      <c r="D23" s="1">
-        <v>150.36130499999999</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-35.544358000000003</v>
-      </c>
-      <c r="F23" s="1">
-        <v>64.5</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1">
-        <v>340</v>
-      </c>
-      <c r="D24" s="1">
-        <v>150.35822300000001</v>
-      </c>
-      <c r="E24" s="1">
-        <v>-35.544803999999999</v>
-      </c>
-      <c r="F24" s="1">
-        <v>100.1</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>16</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1302,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
